--- a/comparaison_performances.xlsx
+++ b/comparaison_performances.xlsx
@@ -8,8 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="version de base" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="version optimisée" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Comparaison des performances" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Screenshot rapport Lighthouse (" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Screenshot rapport Lighthouse-1" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,12 +21,141 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="35">
+  <si>
+    <t xml:space="preserve">Comparaison de la taille des éléments du site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comparaison de la vitesse de chargement des éléments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comparaison notation rapport lighthouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taille en KB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">taille en %</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vitesse de chargement (en ms)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">note sur 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v. de base</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v. optimisée</t>
+  </si>
+  <si>
+    <t xml:space="preserve">limite concevable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minimum recommandé</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Images</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3000 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(3.55MB)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">First Contentful Paint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fonts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time to Interactive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Accessibilité</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JavaScript</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speed Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonnes pratiques</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Total Blocking Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HTML</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Largest Contentful Paint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cumulative Layout Shift</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Screenshot rapport Lighthouse (v. de base)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LCP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">#Screenshot rapport Lighthouse (v. optimisée)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gtmetrix.com/reports/jimmyhlr.github.io/qGrULcRP/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://gtmetrix.com/reports/jimmyhlr.github.io/pfIwjFrz/</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -48,21 +178,120 @@
       <name val="Arial"/>
       <family val="0"/>
     </font>
+    <font>
+      <b val="true"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <u val="single"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCCCCC"/>
+        <bgColor rgb="FFB4C7DC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFDE59"/>
+        <bgColor rgb="FFFFE994"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF77BC65"/>
+        <bgColor rgb="FFAFD095"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF729FCF"/>
+        <bgColor rgb="FF808080"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE994"/>
+        <bgColor rgb="FFFFDE59"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFAFD095"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C7DC"/>
+        <bgColor rgb="FFCCCCCC"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border diagonalUp="false" diagonalDown="false">
+      <left style="hair"/>
+      <right style="hair"/>
+      <top style="hair"/>
+      <bottom style="hair"/>
       <diagonal/>
     </border>
   </borders>
@@ -91,9 +320,97 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="23">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="7" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="9" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -105,6 +422,66 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008000"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FF808000"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FFCCCCCC"/>
+      <rgbColor rgb="FF808080"/>
+      <rgbColor rgb="FF729FCF"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FFFFFFCC"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FF660066"/>
+      <rgbColor rgb="FFFF8080"/>
+      <rgbColor rgb="FF0066CC"/>
+      <rgbColor rgb="FFB4C7DC"/>
+      <rgbColor rgb="FF000080"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF800080"/>
+      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FF008080"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FF00CCFF"/>
+      <rgbColor rgb="FFCCFFFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFFFE994"/>
+      <rgbColor rgb="FFAFD095"/>
+      <rgbColor rgb="FFFF99CC"/>
+      <rgbColor rgb="FFCC99FF"/>
+      <rgbColor rgb="FFFFDE59"/>
+      <rgbColor rgb="FF3366FF"/>
+      <rgbColor rgb="FF33CCCC"/>
+      <rgbColor rgb="FF99CC00"/>
+      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFF9900"/>
+      <rgbColor rgb="FFFF6600"/>
+      <rgbColor rgb="FF666699"/>
+      <rgbColor rgb="FF77BC65"/>
+      <rgbColor rgb="FF003366"/>
+      <rgbColor rgb="FF339966"/>
+      <rgbColor rgb="FF003300"/>
+      <rgbColor rgb="FF333300"/>
+      <rgbColor rgb="FF993300"/>
+      <rgbColor rgb="FF993366"/>
+      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -119,9 +496,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>370440</xdr:colOff>
+      <xdr:colOff>370080</xdr:colOff>
       <xdr:row>44</xdr:row>
-      <xdr:rowOff>190440</xdr:rowOff>
+      <xdr:rowOff>190080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -135,7 +512,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="14833080" cy="8572320"/>
+          <a:ext cx="14847840" cy="8571960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -161,9 +538,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>128160</xdr:colOff>
+      <xdr:colOff>127800</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>142200</xdr:rowOff>
+      <xdr:rowOff>141840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -177,7 +554,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="13132800" cy="7457400"/>
+          <a:ext cx="13152600" cy="7457040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -195,15 +572,695 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
+    <tabColor rgb="FF729FCF"/>
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="B1:P32"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M18" activeCellId="0" sqref="M18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="1" style="1" width="11.52"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="H2" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="2"/>
+      <c r="C4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+    </row>
+    <row r="5" customFormat="false" ht="19.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B5" s="2"/>
+      <c r="C5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="13" t="n">
+        <v>421</v>
+      </c>
+      <c r="E6" s="14" t="n">
+        <v>0.936</v>
+      </c>
+      <c r="F6" s="15" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I6" s="12" t="n">
+        <v>241</v>
+      </c>
+      <c r="J6" s="13" t="n">
+        <v>252</v>
+      </c>
+      <c r="K6" s="16" t="n">
+        <v>900</v>
+      </c>
+      <c r="L6" s="17"/>
+      <c r="M6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="N6" s="12" t="n">
+        <v>88</v>
+      </c>
+      <c r="O6" s="13" t="n">
+        <v>97</v>
+      </c>
+      <c r="P6" s="16" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="12" t="n">
+        <v>130</v>
+      </c>
+      <c r="D7" s="13" t="n">
+        <v>130</v>
+      </c>
+      <c r="E7" s="14" t="n">
+        <v>0.033</v>
+      </c>
+      <c r="F7" s="15" t="n">
+        <v>0.194</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="12" t="n">
+        <v>241</v>
+      </c>
+      <c r="J7" s="13" t="n">
+        <v>271</v>
+      </c>
+      <c r="K7" s="16" t="n">
+        <v>2500</v>
+      </c>
+      <c r="L7" s="17"/>
+      <c r="M7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="12" t="n">
+        <v>84</v>
+      </c>
+      <c r="O7" s="13" t="n">
+        <v>90</v>
+      </c>
+      <c r="P7" s="16" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B8" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="12" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="D8" s="13" t="n">
+        <v>69.5</v>
+      </c>
+      <c r="E8" s="14" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="F8" s="15" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="12" t="n">
+        <v>497</v>
+      </c>
+      <c r="J8" s="13" t="n">
+        <v>361</v>
+      </c>
+      <c r="K8" s="16" t="n">
+        <v>1300</v>
+      </c>
+      <c r="L8" s="17"/>
+      <c r="M8" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="N8" s="12" t="n">
+        <v>93</v>
+      </c>
+      <c r="O8" s="13" t="n">
+        <v>93</v>
+      </c>
+      <c r="P8" s="16" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="24.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="12" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="D9" s="13" t="n">
+        <v>34.2</v>
+      </c>
+      <c r="E9" s="14" t="n">
+        <v>0.009</v>
+      </c>
+      <c r="F9" s="15" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" s="16" t="n">
+        <v>150</v>
+      </c>
+      <c r="L9" s="17"/>
+      <c r="M9" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="N9" s="12" t="n">
+        <v>90</v>
+      </c>
+      <c r="O9" s="13" t="n">
+        <v>100</v>
+      </c>
+      <c r="P9" s="16" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="35.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="12" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="D10" s="13" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="E10" s="14" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="F10" s="15" t="n">
+        <v>0.005</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="12" t="n">
+        <v>521</v>
+      </c>
+      <c r="J10" s="13" t="n">
+        <v>368</v>
+      </c>
+      <c r="K10" s="16" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L10" s="17"/>
+    </row>
+    <row r="11" customFormat="false" ht="24.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="12" t="n">
+        <v>11</v>
+      </c>
+      <c r="D11" s="13" t="n">
+        <v>11</v>
+      </c>
+      <c r="E11" s="14" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="F11" s="15" t="n">
+        <v>0.016</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="12" t="n">
+        <v>0.07</v>
+      </c>
+      <c r="J11" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" s="16" t="n">
+        <v>100</v>
+      </c>
+      <c r="L11" s="17"/>
+      <c r="M11" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="O11" s="18"/>
+      <c r="P11" s="18"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>3248.72</v>
+      </c>
+      <c r="D12" s="8" t="n">
+        <v>668.98</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="H12" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="7" t="n">
+        <v>521</v>
+      </c>
+      <c r="J12" s="8" t="n">
+        <v>368</v>
+      </c>
+      <c r="K12" s="20" t="n">
+        <v>1200</v>
+      </c>
+      <c r="L12" s="10"/>
+      <c r="M12" s="18"/>
+      <c r="N12" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" s="18"/>
+      <c r="P12" s="18"/>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L13" s="21"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="H14" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="18"/>
+      <c r="C15" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="18"/>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
+      <c r="J17" s="21"/>
+      <c r="K17" s="21"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B18" s="22"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
+      <c r="J18" s="21"/>
+      <c r="K18" s="21"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="21"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="21"/>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="10"/>
+      <c r="E21" s="10"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="21"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="10"/>
+      <c r="E22" s="10"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+      <c r="E23" s="10"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="21"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="21"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="21"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B28" s="10"/>
+      <c r="C28" s="10"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="21"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="21"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="21"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="21"/>
+      <c r="J32" s="21"/>
+      <c r="K32" s="21"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="M11:M12"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="N12:P12"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="I15:K15"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="N11" location="'Screenshot rapport Lighthouse (v'! de base)" display="#Screenshot rapport Lighthouse (v. de base)"/>
+    <hyperlink ref="N12" location="'Screenshot rapport Lighthouse (v'! optimisée)" display="#Screenshot rapport Lighthouse (v. optimisée)"/>
+    <hyperlink ref="C14" r:id="rId1" display="https://gtmetrix.com/reports/jimmyhlr.github.io/qGrULcRP/"/>
+    <hyperlink ref="I14" r:id="rId2" display="https://gtmetrix.com/reports/jimmyhlr.github.io/qGrULcRP/"/>
+    <hyperlink ref="C15" r:id="rId3" display="https://gtmetrix.com/reports/jimmyhlr.github.io/pfIwjFrz/"/>
+    <hyperlink ref="I15" r:id="rId4" display="https://gtmetrix.com/reports/jimmyhlr.github.io/pfIwjFrz/"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K28" activeCellId="0" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.5625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -216,18 +1273,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="21554" ySplit="0" topLeftCell="Q1" activePane="topLeft" state="split"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
